--- a/Segundo_Trimestre/personal/Formato Seleccion Personalv0.2.xlsx
+++ b/Segundo_Trimestre/personal/Formato Seleccion Personalv0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APRENDIZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wendy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0459D3A-A92D-4AFC-BA7C-AA6734E11F75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF1148-8EBC-4CF4-AB56-2EFE30BB504E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="450" windowWidth="20355" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seleccion Personal" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Nombre</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Perfil profesional.</t>
   </si>
   <si>
-    <t>Rol el cual desempleña en el proyecto.</t>
-  </si>
-  <si>
     <t>Sistema de Informacion Para Gestionar Inventarios Danna`s</t>
   </si>
   <si>
@@ -94,10 +91,22 @@
     <t>camiloperez1284@gmail.com</t>
   </si>
   <si>
-    <t>Desarrollador</t>
-  </si>
-  <si>
     <t>CAMILO ALEJANDRO PEREZ NIÑO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollador Analista Diseñador </t>
+  </si>
+  <si>
+    <t>Desarrollador Analista Pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollador Analista  Pruebas </t>
+  </si>
+  <si>
+    <t>Desarrollador  Analista  Diseñador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollador   Diseñador  Analista </t>
   </si>
 </sst>
 </file>
@@ -760,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -807,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -825,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -839,13 +848,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,13 +862,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,13 +890,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -896,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -910,13 +919,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,13 +961,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -967,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -983,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -999,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
